--- a/AutoHotKey/단축키 정의.xlsx
+++ b/AutoHotKey/단축키 정의.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
   <si>
     <t>Function</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -278,6 +278,10 @@
   </si>
   <si>
     <t>암기장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피그마</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -696,13 +700,13 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="10.69921875" style="13" customWidth="1"/>
-    <col min="2" max="6" width="10.69921875" style="4" customWidth="1"/>
+    <col min="2" max="6" width="14.69921875" style="4" customWidth="1"/>
     <col min="7" max="16384" width="8.796875" style="4"/>
   </cols>
   <sheetData>
@@ -760,7 +764,9 @@
         <v>38</v>
       </c>
       <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
+      <c r="F4" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="5">
@@ -1183,8 +1189,8 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="1.1811023622047245" header="0.31496062992125984" footer="0.82677165354330717"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="1.48" header="0.31496062992125984" footer="1.1599999999999999"/>
+  <pageSetup paperSize="9" scale="96" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;Z&amp;F&amp;A</oddFooter>
   </headerFooter>

--- a/AutoHotKey/단축키 정의.xlsx
+++ b/AutoHotKey/단축키 정의.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="82">
   <si>
     <t>Function</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -169,26 +169,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>깃 폴드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다운로드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바탕화면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>오토핫키</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -281,7 +261,95 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>F1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>피그마</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카카오톡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C [폴]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D [폴]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>깃 [폴]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다운로드 [폴]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바탕화면 [폴]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오토핫키 [폴]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문서작업 [폴]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밴드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밴드 반야선원</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -289,7 +357,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -304,25 +372,48 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="한컴 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕 Semilight"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -342,8 +433,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -352,6 +467,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -361,7 +491,248 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -370,46 +741,277 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -694,503 +1296,911 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.69921875" style="13" customWidth="1"/>
-    <col min="2" max="6" width="14.69921875" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="8.796875" style="4"/>
+    <col min="1" max="1" width="4.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="16.69921875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="4.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.69921875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="4.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.69921875" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="16"/>
+      <c r="B1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="16"/>
+      <c r="E1" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="16"/>
+      <c r="H1" s="90" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" s="5">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A2" s="17">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3" s="5">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="19">
+        <v>1</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="20"/>
+      <c r="G2" s="19">
+        <v>1</v>
+      </c>
+      <c r="H2" s="21"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3" s="22">
         <v>2</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="6"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5">
+        <v>2</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="F3" s="6"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4" s="5">
+      <c r="G3" s="5">
+        <v>2</v>
+      </c>
+      <c r="H3" s="23"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4" s="22">
         <v>3</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A5" s="5">
+      <c r="D4" s="5">
+        <v>3</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="5">
+        <v>3</v>
+      </c>
+      <c r="H4" s="23"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5" s="22">
         <v>4</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="6"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5">
+        <v>4</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>76</v>
+      </c>
       <c r="F5" s="6"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A6" s="5">
+      <c r="G5" s="5">
+        <v>4</v>
+      </c>
+      <c r="H5" s="23"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6" s="22">
         <v>5</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="6"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="5">
+        <v>5</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>77</v>
+      </c>
       <c r="F6" s="6"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A7" s="5">
+      <c r="G6" s="5">
+        <v>5</v>
+      </c>
+      <c r="H6" s="23"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7" s="22">
         <v>6</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="6"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5">
+        <v>6</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A8" s="5">
+      <c r="G7" s="5">
+        <v>6</v>
+      </c>
+      <c r="H7" s="23"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8" s="22">
         <v>7</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5">
+        <v>7</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>79</v>
+      </c>
       <c r="F8" s="6"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A9" s="5">
+      <c r="G8" s="5">
+        <v>7</v>
+      </c>
+      <c r="H8" s="23"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9" s="22">
         <v>8</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5">
+        <v>8</v>
+      </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A10" s="5">
+      <c r="G9" s="5">
+        <v>8</v>
+      </c>
+      <c r="H9" s="23"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A10" s="22">
         <v>9</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="5">
+        <v>9</v>
+      </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A11" s="5">
-        <v>10</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A12" s="5">
-        <v>11</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A13" s="5">
-        <v>12</v>
-      </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A14" s="7" t="s">
+      <c r="G10" s="5">
+        <v>9</v>
+      </c>
+      <c r="H10" s="23"/>
+    </row>
+    <row r="11" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="65">
+        <v>0</v>
+      </c>
+      <c r="B11" s="66"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="67">
+        <v>0</v>
+      </c>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="67">
+        <v>0</v>
+      </c>
+      <c r="H11" s="69"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A12" s="70" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="71"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="70" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="72" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" s="72"/>
+      <c r="G12" s="70" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" s="73"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A13" s="86" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="87"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="86" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="88" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" s="88"/>
+      <c r="G13" s="86" t="s">
+        <v>60</v>
+      </c>
+      <c r="H13" s="89"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A14" s="74" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="75"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="74" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="74" t="s">
+        <v>61</v>
+      </c>
+      <c r="H14" s="77" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A15" s="74" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="75"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="74" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="76"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="74" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15" s="77" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A16" s="74" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="75"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="74" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="74" t="s">
+        <v>63</v>
+      </c>
+      <c r="H16" s="77"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A17" s="74" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="75"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="74" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="74" t="s">
+        <v>64</v>
+      </c>
+      <c r="H17" s="77"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A18" s="78" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="79"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="78" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="80"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="78" t="s">
+        <v>65</v>
+      </c>
+      <c r="H18" s="81"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A19" s="78" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="79"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="78" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="80"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="78" t="s">
+        <v>66</v>
+      </c>
+      <c r="H19" s="81"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A20" s="78" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="79"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="78" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="80"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="78" t="s">
+        <v>67</v>
+      </c>
+      <c r="H20" s="81"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A21" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="79"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="80"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="H21" s="81"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A22" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="79"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="80"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="H22" s="81"/>
+    </row>
+    <row r="23" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="82" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="83"/>
+      <c r="C23" s="83"/>
+      <c r="D23" s="82" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="84"/>
+      <c r="F23" s="84"/>
+      <c r="G23" s="82" t="s">
+        <v>70</v>
+      </c>
+      <c r="H23" s="85"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A24" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A15" s="7" t="s">
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" s="27"/>
+      <c r="G24" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="H24" s="28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A25" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A16" s="7" t="s">
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H25" s="30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A26" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A17" s="7" t="s">
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H26" s="30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A27" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A18" s="7" t="s">
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H27" s="30"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A28" s="29" t="s">
         <v>5</v>
-      </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A19" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A20" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A21" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A22" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A23" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A25" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A26" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A27" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A28" s="7" t="s">
-        <v>15</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A29" s="7" t="s">
-        <v>16</v>
+      <c r="D28" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H28" s="30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A29" s="29" t="s">
+        <v>6</v>
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A30" s="7" t="s">
-        <v>17</v>
+      <c r="D29" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H29" s="30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A30" s="29" t="s">
+        <v>7</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A31" s="7" t="s">
-        <v>18</v>
+      <c r="D30" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F30" s="9"/>
+      <c r="G30" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H30" s="30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A31" s="29" t="s">
+        <v>8</v>
       </c>
       <c r="B31" s="8"/>
-      <c r="C31" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A32" s="7" t="s">
-        <v>19</v>
+      <c r="C31" s="8"/>
+      <c r="D31" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F31" s="9"/>
+      <c r="G31" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H31" s="30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A32" s="29" t="s">
+        <v>9</v>
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A33" s="7" t="s">
-        <v>20</v>
+      <c r="D32" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H32" s="30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A33" s="29" t="s">
+        <v>10</v>
       </c>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8" t="s">
+      <c r="D33" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F33" s="9"/>
+      <c r="G33" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H33" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34" s="35"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A35" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="37"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35" s="40" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A36" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" s="42" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" s="44"/>
+      <c r="C37" s="44"/>
+      <c r="D37" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" s="46"/>
+      <c r="F37" s="46"/>
+      <c r="G37" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37" s="47" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A38" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" s="49"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" s="51"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="H38" s="52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A39" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H39" s="54" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A40" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H40" s="54" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A41" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H41" s="54" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A34" s="7" t="s">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A42" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H42" s="54" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A43" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H43" s="54" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A44" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A35" s="7" t="s">
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H44" s="54"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A45" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A36" s="7" t="s">
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H45" s="54" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A46" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A37" s="7" t="s">
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H46" s="54"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A47" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A38" s="7" t="s">
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H47" s="54"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A48" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8" t="s">
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H48" s="54" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A39" s="7" t="s">
+    <row r="49" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A49" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A40" s="11" t="s">
+      <c r="B49" s="56"/>
+      <c r="C49" s="56"/>
+      <c r="D49" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="E49" s="58"/>
+      <c r="F49" s="58"/>
+      <c r="G49" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="H49" s="59"/>
+    </row>
+    <row r="50" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A50" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12" t="s">
+      <c r="B50" s="61"/>
+      <c r="C50" s="61"/>
+      <c r="D50" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="E50" s="63"/>
+      <c r="F50" s="63"/>
+      <c r="G50" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="H50" s="64" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="1.48" header="0.31496062992125984" footer="1.1599999999999999"/>
-  <pageSetup paperSize="9" scale="96" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageMargins left="0" right="0" top="0.48" bottom="0.44" header="0.31496062992125984" footer="0.17"/>
+  <pageSetup paperSize="9" scale="91" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;Z&amp;F&amp;A</oddFooter>
   </headerFooter>

--- a/AutoHotKey/단축키 정의.xlsx
+++ b/AutoHotKey/단축키 정의.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="84">
   <si>
     <t>Function</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -350,6 +350,14 @@
   </si>
   <si>
     <t>밴드 반야선원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구글 드라이브</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구글 공유드라이브</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1302,7 +1310,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1777,7 +1785,9 @@
       <c r="D27" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E27" s="9"/>
+      <c r="E27" s="9" t="s">
+        <v>82</v>
+      </c>
       <c r="F27" s="9"/>
       <c r="G27" s="7" t="s">
         <v>4</v>
@@ -1811,7 +1821,9 @@
       <c r="D29" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E29" s="9"/>
+      <c r="E29" s="9" t="s">
+        <v>83</v>
+      </c>
       <c r="F29" s="9"/>
       <c r="G29" s="7" t="s">
         <v>6</v>

--- a/AutoHotKey/단축키 정의.xlsx
+++ b/AutoHotKey/단축키 정의.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="90">
   <si>
     <t>Function</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -358,6 +358,30 @@
   </si>
   <si>
     <t>구글 공유드라이브</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유튜브</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업무의 잔머리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>땅작 몰아보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>면부장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼프로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메스캐드</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1304,13 +1328,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E29" sqref="E29"/>
+      <selection pane="bottomRight" activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1532,7 +1556,9 @@
       <c r="E12" s="72" t="s">
         <v>80</v>
       </c>
-      <c r="F12" s="72"/>
+      <c r="F12" s="72" t="s">
+        <v>84</v>
+      </c>
       <c r="G12" s="70" t="s">
         <v>59</v>
       </c>
@@ -1550,7 +1576,9 @@
       <c r="E13" s="88" t="s">
         <v>81</v>
       </c>
-      <c r="F13" s="88"/>
+      <c r="F13" s="88" t="s">
+        <v>88</v>
+      </c>
       <c r="G13" s="86" t="s">
         <v>60</v>
       </c>
@@ -1566,7 +1594,9 @@
         <v>61</v>
       </c>
       <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
+      <c r="F14" s="88" t="s">
+        <v>85</v>
+      </c>
       <c r="G14" s="74" t="s">
         <v>61</v>
       </c>
@@ -1584,7 +1614,9 @@
         <v>62</v>
       </c>
       <c r="E15" s="76"/>
-      <c r="F15" s="76"/>
+      <c r="F15" s="76" t="s">
+        <v>86</v>
+      </c>
       <c r="G15" s="74" t="s">
         <v>62</v>
       </c>
@@ -1602,7 +1634,9 @@
         <v>63</v>
       </c>
       <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
+      <c r="F16" s="76" t="s">
+        <v>87</v>
+      </c>
       <c r="G16" s="74" t="s">
         <v>63</v>
       </c>
@@ -1720,491 +1754,513 @@
       </c>
       <c r="H23" s="85"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A24" s="24" t="s">
+    <row r="24" spans="1:8" s="3" customFormat="1" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="16"/>
+      <c r="B24" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="90" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="16"/>
+      <c r="E24" s="90" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="90" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="16"/>
+      <c r="H24" s="90" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A25" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="26" t="s">
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="E24" s="27" t="s">
+      <c r="E25" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="F24" s="27"/>
-      <c r="G24" s="26" t="s">
+      <c r="F25" s="27"/>
+      <c r="G25" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="H24" s="28" t="s">
+      <c r="H25" s="28" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A25" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="H25" s="30" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" s="29" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
       <c r="G26" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H26" s="30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27" s="29" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>82</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E27" s="9"/>
       <c r="F27" s="9"/>
       <c r="G27" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H27" s="30"/>
+        <v>3</v>
+      </c>
+      <c r="H27" s="30" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28" s="29" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
       <c r="D28" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E28" s="9"/>
+        <v>4</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>82</v>
+      </c>
       <c r="F28" s="9"/>
       <c r="G28" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H28" s="30" t="s">
-        <v>51</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="H28" s="30"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29" s="29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
       <c r="D29" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>83</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E29" s="9"/>
       <c r="F29" s="9"/>
       <c r="G29" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H29" s="30" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30" s="29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="F30" s="9"/>
       <c r="G30" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H30" s="30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31" s="29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
       <c r="D31" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F31" s="9"/>
       <c r="G31" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H31" s="30" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A32" s="29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
       <c r="D32" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32" s="9"/>
+        <v>8</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="F32" s="9"/>
       <c r="G32" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H32" s="30" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A33" s="29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
       <c r="D33" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>40</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E33" s="9"/>
       <c r="F33" s="9"/>
       <c r="G33" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H33" s="30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A34" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="H33" s="30" t="s">
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F34" s="9"/>
+      <c r="G34" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H34" s="30" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="31" t="s">
+    <row r="35" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="33" t="s">
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="33" t="s">
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="H34" s="35"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A35" s="36" t="s">
+      <c r="H35" s="35"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A36" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="37"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="38" t="s">
+      <c r="B36" s="37"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="E35" s="39"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="38" t="s">
+      <c r="E36" s="39"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="H35" s="40" t="s">
+      <c r="H36" s="40" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A36" s="41" t="s">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A37" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="11" t="s">
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="11" t="s">
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H36" s="42" t="s">
+      <c r="H37" s="42" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="43" t="s">
+    <row r="38" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B37" s="44"/>
-      <c r="C37" s="44"/>
-      <c r="D37" s="45" t="s">
+      <c r="B38" s="44"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="E37" s="46"/>
-      <c r="F37" s="46"/>
-      <c r="G37" s="45" t="s">
+      <c r="E38" s="46"/>
+      <c r="F38" s="46"/>
+      <c r="G38" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="H37" s="47" t="s">
+      <c r="H38" s="47" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A38" s="48" t="s">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A39" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="49"/>
-      <c r="C38" s="49"/>
-      <c r="D38" s="50" t="s">
+      <c r="B39" s="49"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="E38" s="51"/>
-      <c r="F38" s="51"/>
-      <c r="G38" s="50" t="s">
+      <c r="E39" s="51"/>
+      <c r="F39" s="51"/>
+      <c r="G39" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="H38" s="52" t="s">
+      <c r="H39" s="52" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A39" s="53" t="s">
-        <v>16</v>
-      </c>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H39" s="54" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A40" s="53" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
       <c r="D40" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E40" s="15"/>
       <c r="F40" s="15"/>
       <c r="G40" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H40" s="54" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A41" s="53" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B41" s="13"/>
-      <c r="C41" s="13" t="s">
-        <v>34</v>
-      </c>
+      <c r="C41" s="13"/>
       <c r="D41" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E41" s="15"/>
       <c r="F41" s="15"/>
       <c r="G41" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H41" s="54" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A42" s="53" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
+      <c r="C42" s="13" t="s">
+        <v>34</v>
+      </c>
       <c r="D42" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E42" s="15"/>
       <c r="F42" s="15"/>
       <c r="G42" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H42" s="54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A43" s="53" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
       <c r="D43" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E43" s="15"/>
       <c r="F43" s="15"/>
       <c r="G43" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H43" s="54" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A44" s="53" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
       <c r="D44" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E44" s="15"/>
       <c r="F44" s="15"/>
       <c r="G44" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="H44" s="54"/>
+        <v>20</v>
+      </c>
+      <c r="H44" s="54" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A45" s="53" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B45" s="13"/>
       <c r="C45" s="13"/>
       <c r="D45" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E45" s="15"/>
       <c r="F45" s="15"/>
       <c r="G45" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H45" s="54" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A46" s="53" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B46" s="13"/>
       <c r="C46" s="13"/>
       <c r="D46" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E46" s="15"/>
       <c r="F46" s="15"/>
       <c r="G46" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H46" s="54"/>
+        <v>22</v>
+      </c>
+      <c r="H46" s="54" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A47" s="53" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B47" s="13"/>
       <c r="C47" s="13"/>
       <c r="D47" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E47" s="15"/>
       <c r="F47" s="15"/>
       <c r="G47" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H47" s="54"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A48" s="53" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B48" s="13"/>
       <c r="C48" s="13"/>
       <c r="D48" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E48" s="15"/>
       <c r="F48" s="15"/>
       <c r="G48" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H48" s="54"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A49" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="H48" s="54" t="s">
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H49" s="54" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="55" t="s">
+    <row r="50" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A50" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="B49" s="56"/>
-      <c r="C49" s="56"/>
-      <c r="D49" s="57" t="s">
+      <c r="B50" s="56"/>
+      <c r="C50" s="56"/>
+      <c r="D50" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="E49" s="58"/>
-      <c r="F49" s="58"/>
-      <c r="G49" s="57" t="s">
+      <c r="E50" s="58"/>
+      <c r="F50" s="58"/>
+      <c r="G50" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="H49" s="59"/>
-    </row>
-    <row r="50" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="60" t="s">
+      <c r="H50" s="59"/>
+    </row>
+    <row r="51" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A51" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="B50" s="61"/>
-      <c r="C50" s="61"/>
-      <c r="D50" s="62" t="s">
+      <c r="B51" s="61"/>
+      <c r="C51" s="61"/>
+      <c r="D51" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="E50" s="63"/>
-      <c r="F50" s="63"/>
-      <c r="G50" s="62" t="s">
+      <c r="E51" s="63"/>
+      <c r="F51" s="63"/>
+      <c r="G51" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="H50" s="64" t="s">
+      <c r="H51" s="64" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2212,7 +2268,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0.48" bottom="0.44" header="0.31496062992125984" footer="0.17"/>
-  <pageSetup paperSize="9" scale="91" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="86" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;Z&amp;F&amp;A</oddFooter>
   </headerFooter>

--- a/AutoHotKey/단축키 정의.xlsx
+++ b/AutoHotKey/단축키 정의.xlsx
@@ -2267,9 +2267,10 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0" right="0" top="0.48" bottom="0.44" header="0.31496062992125984" footer="0.17"/>
+  <pageMargins left="0" right="0" top="0.47244094488188981" bottom="0.43307086614173229" header="0.31496062992125984" footer="0.15748031496062992"/>
   <pageSetup paperSize="9" scale="86" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter>
+    <oddHeader>&amp;R&amp;D&amp;T</oddHeader>
     <oddFooter>&amp;C&amp;Z&amp;F&amp;A</oddFooter>
   </headerFooter>
 </worksheet>

--- a/AutoHotKey/단축키 정의.xlsx
+++ b/AutoHotKey/단축키 정의.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
   <si>
     <t>Function</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -382,6 +382,14 @@
   </si>
   <si>
     <t>메스캐드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>핫키 종료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구글 메일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1334,7 +1342,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H46" sqref="H46"/>
+      <selection pane="bottomRight" activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1853,7 +1861,9 @@
         <v>5</v>
       </c>
       <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
+      <c r="C29" s="8" t="s">
+        <v>90</v>
+      </c>
       <c r="D29" s="7" t="s">
         <v>5</v>
       </c>
@@ -1935,7 +1945,9 @@
       <c r="D33" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E33" s="9"/>
+      <c r="E33" s="9" t="s">
+        <v>91</v>
+      </c>
       <c r="F33" s="9"/>
       <c r="G33" s="7" t="s">
         <v>9</v>

--- a/AutoHotKey/단축키 정의.xlsx
+++ b/AutoHotKey/단축키 정의.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="93">
   <si>
     <t>Function</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -390,6 +390,10 @@
   </si>
   <si>
     <t>구글 메일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -781,7 +785,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1052,6 +1056,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1342,7 +1349,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E33" sqref="E33"/>
+      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1621,7 +1628,9 @@
       <c r="D15" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="E15" s="76"/>
+      <c r="E15" s="91" t="s">
+        <v>92</v>
+      </c>
       <c r="F15" s="76" t="s">
         <v>86</v>
       </c>

--- a/AutoHotKey/단축키 정의.xlsx
+++ b/AutoHotKey/단축키 정의.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="94">
   <si>
     <t>Function</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -394,6 +394,10 @@
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>암기장 [폴]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1349,7 +1353,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1520,7 +1524,9 @@
       <c r="D9" s="5">
         <v>8</v>
       </c>
-      <c r="E9" s="6"/>
+      <c r="E9" s="6" t="s">
+        <v>93</v>
+      </c>
       <c r="F9" s="6"/>
       <c r="G9" s="5">
         <v>8</v>

--- a/AutoHotKey/단축키 정의.xlsx
+++ b/AutoHotKey/단축키 정의.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52DC5EF1-1FD1-4898-A5CD-474179AC0F6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="96">
   <si>
     <t>Function</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -398,13 +399,21 @@
   </si>
   <si>
     <t>암기장 [폴]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타입드 홈피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타입드 노션</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1343,17 +1352,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2237,7 +2246,9 @@
       <c r="G48" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H48" s="54"/>
+      <c r="H48" s="54" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A49" s="53" t="s">
@@ -2271,7 +2282,9 @@
       <c r="G50" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="H50" s="59"/>
+      <c r="H50" s="59" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="51" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A51" s="60" t="s">
@@ -2295,7 +2308,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0.47244094488188981" bottom="0.43307086614173229" header="0.31496062992125984" footer="0.15748031496062992"/>
-  <pageSetup paperSize="9" scale="86" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="87" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;R&amp;D&amp;T</oddHeader>
     <oddFooter>&amp;C&amp;Z&amp;F&amp;A</oddFooter>

--- a/AutoHotKey/단축키 정의.xlsx
+++ b/AutoHotKey/단축키 정의.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52DC5EF1-1FD1-4898-A5CD-474179AC0F6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="97">
   <si>
     <t>Function</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -407,13 +406,17 @@
   </si>
   <si>
     <t>타입드 노션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구글 캘린더</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1352,17 +1355,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H50" sqref="H50"/>
+      <selection pane="bottomRight" activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1853,7 +1856,9 @@
       <c r="D27" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E27" s="9"/>
+      <c r="E27" s="9" t="s">
+        <v>96</v>
+      </c>
       <c r="F27" s="9"/>
       <c r="G27" s="7" t="s">
         <v>3</v>
@@ -2308,7 +2313,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0.47244094488188981" bottom="0.43307086614173229" header="0.31496062992125984" footer="0.15748031496062992"/>
-  <pageSetup paperSize="9" scale="87" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="86" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;R&amp;D&amp;T</oddHeader>
     <oddFooter>&amp;C&amp;Z&amp;F&amp;A</oddFooter>

--- a/AutoHotKey/단축키 정의.xlsx
+++ b/AutoHotKey/단축키 정의.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="99">
   <si>
     <t>Function</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -410,6 +410,14 @@
   </si>
   <si>
     <t>구글 캘린더</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도서관 : 부산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도서관 : 옹기종기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1362,10 +1370,10 @@
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E63" sqref="E63"/>
+      <selection pane="bottomRight" activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2014,7 +2022,9 @@
       <c r="D35" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E35" s="34"/>
+      <c r="E35" s="34" t="s">
+        <v>98</v>
+      </c>
       <c r="F35" s="34"/>
       <c r="G35" s="33" t="s">
         <v>11</v>
@@ -2030,7 +2040,9 @@
       <c r="D36" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="E36" s="39"/>
+      <c r="E36" s="39" t="s">
+        <v>97</v>
+      </c>
       <c r="F36" s="39"/>
       <c r="G36" s="38" t="s">
         <v>12</v>

--- a/AutoHotKey/단축키 정의.xlsx
+++ b/AutoHotKey/단축키 정의.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="101">
   <si>
     <t>Function</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -418,6 +418,14 @@
   </si>
   <si>
     <t>도서관 : 옹기종기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도서검색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교보문고</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2060,7 +2068,9 @@
       <c r="D37" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E37" s="12"/>
+      <c r="E37" s="12" t="s">
+        <v>99</v>
+      </c>
       <c r="F37" s="12"/>
       <c r="G37" s="11" t="s">
         <v>13</v>
@@ -2078,7 +2088,9 @@
       <c r="D38" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="E38" s="46"/>
+      <c r="E38" s="46" t="s">
+        <v>100</v>
+      </c>
       <c r="F38" s="46"/>
       <c r="G38" s="45" t="s">
         <v>14</v>
@@ -2325,7 +2337,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0.47244094488188981" bottom="0.43307086614173229" header="0.31496062992125984" footer="0.15748031496062992"/>
-  <pageSetup paperSize="9" scale="86" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="87" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;R&amp;D&amp;T</oddHeader>
     <oddFooter>&amp;C&amp;Z&amp;F&amp;A</oddFooter>

--- a/AutoHotKey/단축키 정의.xlsx
+++ b/AutoHotKey/단축키 정의.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB30DA2-0FBC-4B25-B3B9-8B27864344A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="102">
   <si>
     <t>Function</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -426,13 +427,17 @@
   </si>
   <si>
     <t>교보문고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>깃 폴드</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1371,17 +1376,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E38" sqref="E38"/>
+      <selection pane="bottomRight" activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2200,7 +2205,9 @@
       <c r="D44" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E44" s="15"/>
+      <c r="E44" s="15" t="s">
+        <v>101</v>
+      </c>
       <c r="F44" s="15"/>
       <c r="G44" s="14" t="s">
         <v>20</v>

--- a/AutoHotKey/단축키 정의.xlsx
+++ b/AutoHotKey/단축키 정의.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB30DA2-0FBC-4B25-B3B9-8B27864344A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="103">
   <si>
     <t>Function</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -431,13 +430,17 @@
   </si>
   <si>
     <t>깃 폴드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필사 [폴]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1376,17 +1379,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E44" sqref="E44"/>
+      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1432,7 +1435,9 @@
       <c r="E2" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="20"/>
+      <c r="F2" s="20" t="s">
+        <v>102</v>
+      </c>
       <c r="G2" s="19">
         <v>1</v>
       </c>
@@ -2344,7 +2349,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0.47244094488188981" bottom="0.43307086614173229" header="0.31496062992125984" footer="0.15748031496062992"/>
-  <pageSetup paperSize="9" scale="87" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="86" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;R&amp;D&amp;T</oddHeader>
     <oddFooter>&amp;C&amp;Z&amp;F&amp;A</oddFooter>
